--- a/Pacientes.xlsx
+++ b/Pacientes.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manuelsaavedra/Desktop/BMA_Opticas/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB224CD-4D19-1242-A6FB-96A48BDE0BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Nombre</t>
   </si>
@@ -86,13 +92,16 @@
   </si>
   <si>
     <t>956123478</t>
+  </si>
+  <si>
+    <t>Valor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,7 +126,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -140,13 +149,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -155,13 +178,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -199,7 +230,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -233,6 +264,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -267,9 +299,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -442,14 +475,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -465,8 +500,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -483,7 +521,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -500,7 +538,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -517,7 +555,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -534,7 +572,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>

--- a/Pacientes.xlsx
+++ b/Pacientes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manuelsaavedra/Desktop/BMA_Opticas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB224CD-4D19-1242-A6FB-96A48BDE0BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319D53FC-E441-8A4E-9D0F-F8C5A10FD126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16360" yWindow="780" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
   <si>
     <t>Nombre</t>
   </si>
@@ -31,27 +31,9 @@
     <t>Última_visita</t>
   </si>
   <si>
-    <t>Diagnóstico</t>
-  </si>
-  <si>
     <t>Teléfono</t>
   </si>
   <si>
-    <t>Ana</t>
-  </si>
-  <si>
-    <t>Luis</t>
-  </si>
-  <si>
-    <t>Marta</t>
-  </si>
-  <si>
-    <t>Pedro</t>
-  </si>
-  <si>
-    <t>Sofía</t>
-  </si>
-  <si>
     <t>2025-01-10</t>
   </si>
   <si>
@@ -67,18 +49,6 @@
     <t>2025-07-22</t>
   </si>
   <si>
-    <t>Miopía</t>
-  </si>
-  <si>
-    <t>Astigmatismo</t>
-  </si>
-  <si>
-    <t>Hipermetropía</t>
-  </si>
-  <si>
-    <t>Catarata</t>
-  </si>
-  <si>
     <t>987654321</t>
   </si>
   <si>
@@ -95,12 +65,111 @@
   </si>
   <si>
     <t>Valor</t>
+  </si>
+  <si>
+    <t>Tipo_Lente</t>
+  </si>
+  <si>
+    <t>Rut</t>
+  </si>
+  <si>
+    <t>OD_SPH</t>
+  </si>
+  <si>
+    <t>OD_CYL</t>
+  </si>
+  <si>
+    <t>OD_EJE</t>
+  </si>
+  <si>
+    <t>OI_SPH</t>
+  </si>
+  <si>
+    <t>OI_CYL</t>
+  </si>
+  <si>
+    <t>OI_EJE</t>
+  </si>
+  <si>
+    <t>DP_Lejos</t>
+  </si>
+  <si>
+    <t>DP_CERCA</t>
+  </si>
+  <si>
+    <t>ADD</t>
+  </si>
+  <si>
+    <t>FORMA_PAGO</t>
+  </si>
+  <si>
+    <t>Ana Torres</t>
+  </si>
+  <si>
+    <t>Luis Chandia</t>
+  </si>
+  <si>
+    <t>Marta Lavin</t>
+  </si>
+  <si>
+    <t>Pedro Paez</t>
+  </si>
+  <si>
+    <t>Sofía Tassara</t>
+  </si>
+  <si>
+    <t>xx.xxx.xxx-x</t>
+  </si>
+  <si>
+    <t>TC</t>
+  </si>
+  <si>
+    <t>Deb.</t>
+  </si>
+  <si>
+    <t>Efectivo</t>
+  </si>
+  <si>
+    <t>Monofocal</t>
+  </si>
+  <si>
+    <t>Armazon</t>
+  </si>
+  <si>
+    <t>Tipo_Cxs</t>
+  </si>
+  <si>
+    <t>Progrescivo</t>
+  </si>
+  <si>
+    <t>Bifocal</t>
+  </si>
+  <si>
+    <t>C. Rossi</t>
+  </si>
+  <si>
+    <t>Legiro</t>
+  </si>
+  <si>
+    <t>Fosse</t>
+  </si>
+  <si>
+    <t>Merca</t>
+  </si>
+  <si>
+    <t>CR+F. Azul</t>
+  </si>
+  <si>
+    <t>CR+AR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="42" formatCode="_ &quot;$&quot;* #,##0_ ;_ &quot;$&quot;* \-#,##0_ ;_ &quot;$&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -164,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -172,6 +241,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,117 +549,229 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4">
+        <v>89000</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="4">
+        <v>75000</v>
+      </c>
+      <c r="G3" t="s">
         <v>34</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
-        <v>42</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
+      <c r="F4" s="4">
+        <v>280000</v>
+      </c>
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
-        <v>29</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5">
+        <v>51</v>
+      </c>
+      <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
+      <c r="F5" s="4">
+        <v>145000</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
-        <v>51</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>37</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
+      <c r="F6" s="4">
+        <v>55000</v>
+      </c>
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
